--- a/excel2json-master/PlayerLevel_Data.xlsx
+++ b/excel2json-master/PlayerLevel_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE785140-0CE0-4879-8AE7-2E19F71560CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B348F-EADB-4D32-8D7F-6A454A862237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1995" windowWidth="13365" windowHeight="11880" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="12975" yWindow="3285" windowWidth="15030" windowHeight="10125" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
+    <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/excel2json-master/PlayerLevel_Data.xlsx
+++ b/excel2json-master/PlayerLevel_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B348F-EADB-4D32-8D7F-6A454A862237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3DC85-B30B-4EE4-AA7A-3DE6B7239912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="3285" windowWidth="15030" windowHeight="10125" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +486,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -550,7 +559,7 @@
       <c r="E3" s="6">
         <v>0.1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
@@ -571,8 +580,8 @@
       <c r="E4" s="6">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
+      <c r="F4" s="9">
+        <v>0</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="7"/>
@@ -590,8 +599,8 @@
       <c r="E5" s="6">
         <v>0.1</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
+      <c r="F5" s="9">
+        <v>0</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -609,8 +618,8 @@
       <c r="E6" s="6">
         <v>0.1</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
+      <c r="F6" s="9">
+        <v>0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="7"/>
@@ -628,8 +637,8 @@
       <c r="E7" s="6">
         <v>0.1</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
+      <c r="F7" s="9">
+        <v>0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -647,8 +656,8 @@
       <c r="E8" s="6">
         <v>0.1</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
+      <c r="F8" s="9">
+        <v>0</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="7"/>
@@ -666,8 +675,8 @@
       <c r="E9" s="6">
         <v>0.1</v>
       </c>
-      <c r="F9" s="6">
-        <v>2</v>
+      <c r="F9" s="9">
+        <v>0</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="7"/>
@@ -685,8 +694,8 @@
       <c r="E10" s="6">
         <v>0.1</v>
       </c>
-      <c r="F10" s="6">
-        <v>3</v>
+      <c r="F10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="7"/>
@@ -704,8 +713,8 @@
       <c r="E11" s="6">
         <v>0.2</v>
       </c>
-      <c r="F11" s="6">
-        <v>4</v>
+      <c r="F11" s="9">
+        <v>0</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="7"/>

--- a/excel2json-master/PlayerLevel_Data.xlsx
+++ b/excel2json-master/PlayerLevel_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3DC85-B30B-4EE4-AA7A-3DE6B7239912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DADE39-4438-4061-8628-F64D8CD0EEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2070" windowWidth="19380" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
+    <workbookView xWindow="8355" yWindow="1605" windowWidth="15870" windowHeight="13260" xr2:uid="{8E541560-C0DE-451A-86CF-CC8DC2B3191B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>72000</v>
+        <v>144000</v>
       </c>
       <c r="D10" s="6">
         <v>4</v>
@@ -704,8 +704,8 @@
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>144000</v>
+      <c r="C11" s="9">
+        <v>250000</v>
       </c>
       <c r="D11" s="6">
         <v>5</v>
@@ -714,7 +714,7 @@
         <v>0.2</v>
       </c>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="7"/>
